--- a/jupyter/data/Book1.xlsx
+++ b/jupyter/data/Book1.xlsx
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -45,6 +47,24 @@
   </si>
   <si>
     <t>vypusk1</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>-С</t>
+  </si>
+  <si>
+    <t>-В</t>
+  </si>
+  <si>
+    <t>-А</t>
   </si>
 </sst>
 </file>
@@ -137,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -147,6 +167,10 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -429,13 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -449,216 +476,472 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>33777430</v>
+      <c r="A2" s="5">
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>27347.555702608606</v>
+        <v>-10324.464884899999</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>19146253</v>
+        <v>-10175223</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>12939.887053232369</v>
+        <v>-3947.7218735599999</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>121972226</v>
+        <v>-8531843</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>67869.464518021108</v>
+        <v>-30501.237616150007</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>18088077</v>
+      <c r="A5" s="5">
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>10677.492611837604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3011385</v>
+      <c r="A6" s="5">
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>1395.0655346924043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>23114100</v>
+      <c r="A7" s="5">
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>12275.854808509359</v>
+        <v>-102.25636999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>49949831</v>
+      <c r="A8" s="5">
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>31295.353541430108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>27827474</v>
+        <v>-1130118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>15809.689960370875</v>
+        <v>-5861.4056300000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3126861</v>
+      <c r="A10" s="5">
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>1418.865569283292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>11293507</v>
+      <c r="A11" s="5">
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>8484.505538301888</v>
+        <v>-1760.79458</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>12522958</v>
+      <c r="A12" s="5">
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>4554.7927178661939</v>
+        <v>-114.01109</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>15789941</v>
+        <v>-555450</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>8953.8136453531661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>11012636</v>
+        <v>-487368</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>6453.0804689321194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>4324159</v>
+        <v>-1513609</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>2662.7463660768672</v>
+        <v>-950.91711000000009</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>11147379</v>
+        <v>-5336</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>8909.7854612995652</v>
+        <v>-3.8128699999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>13349431</v>
+        <v>-362485</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>6768.1959348187365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>10076567</v>
+        <v>-220957</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
-        <v>4961.9124248964154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2287376</v>
+        <v>-7650417</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3">
-        <v>1062.6922238180821</v>
+        <v>-242.74900000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2358939</v>
+        <v>-51776132</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
-        <v>1354.6092357669777</v>
-      </c>
+        <v>-14.73752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2287376</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1062.6922238180821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2358939</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1354.6092357669777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3011385</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1395.0655346924043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3126861</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1418.865569283292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4324159</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2662.7463660768672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10076567</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4961.9124248964154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>11012636</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6453.0804689321194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>11147379</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8909.7854612995652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>11293507</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8484.505538301888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>12522958</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4554.7927178661939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>13349431</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6768.1959348187365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>15789941</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8953.8136453531661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>18088077</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10677.492611837604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>19146253</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12939.887053232369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>23114100</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12275.854808509359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>27827474</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15809.689960370875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>33777430</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>27347.555702608606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>49949831</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>31295.353541430108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>121972226</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>67869.464518021108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C20">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>